--- a/insight/강원_업종별 매출비율(컬러).xlsx
+++ b/insight/강원_업종별 매출비율(컬러).xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="강원_업종별 매출비율" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
